--- a/Tabla Scrum.xlsx
+++ b/Tabla Scrum.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>NO.</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Prototipo búsqueda, eliminar, editar y codificación de los mismos</t>
+  </si>
+  <si>
+    <t>Prototipo y codificación de búsqueda</t>
   </si>
 </sst>
 </file>
@@ -71,8 +77,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -376,60 +384,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>42843</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>42845</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>42846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42850</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
